--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5071 L5701 L5976/FT_L5071.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5071 L5701 L5976/FT_L5071.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5071 L5701 L5976\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1346D-1FB6-4688-8B3C-4588CF1F8109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517B6B5-B593-48F9-963F-A81FE1629912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,10 +318,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
-  </si>
-  <si>
     <t>cu31780005</t>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.64.DOCX</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>22</v>
@@ -971,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>74</v>
@@ -1007,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>22</v>
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -1054,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>21</v>
@@ -1063,7 +1063,7 @@
         <v>23</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>74</v>
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>21</v>
@@ -1108,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>74</v>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>21</v>
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>74</v>
@@ -1191,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>21</v>
@@ -1200,7 +1200,7 @@
         <v>23</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>74</v>
@@ -1238,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>21</v>
@@ -1247,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>74</v>
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>21</v>
@@ -1294,7 +1294,7 @@
         <v>23</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>74</v>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>21</v>
@@ -1341,7 +1341,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>74</v>
@@ -1379,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>21</v>
@@ -1388,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>74</v>
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>21</v>
@@ -1435,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>74</v>
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>21</v>
@@ -1482,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>74</v>
@@ -1520,7 +1520,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>21</v>
@@ -1529,7 +1529,7 @@
         <v>23</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>74</v>
@@ -1567,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>21</v>
@@ -1576,7 +1576,7 @@
         <v>23</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>74</v>
@@ -1614,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>21</v>
@@ -1623,7 +1623,7 @@
         <v>23</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>74</v>
@@ -1661,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>21</v>
@@ -1670,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>74</v>
@@ -1708,7 +1708,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>21</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>74</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>21</v>
@@ -1764,7 +1764,7 @@
         <v>23</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>74</v>
@@ -1802,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>21</v>
@@ -1811,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>74</v>
@@ -1849,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>21</v>
@@ -1858,7 +1858,7 @@
         <v>23</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>74</v>
@@ -1896,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>21</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>74</v>
@@ -1943,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>21</v>
@@ -1952,7 +1952,7 @@
         <v>23</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>74</v>
@@ -1990,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>21</v>
@@ -1999,7 +1999,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>74</v>
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>21</v>
@@ -2046,7 +2046,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>74</v>
@@ -2084,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>21</v>
@@ -2093,7 +2093,7 @@
         <v>23</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>74</v>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>21</v>
@@ -2140,7 +2140,7 @@
         <v>23</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
